--- a/REGULAR/1-RETIRED/FERMA, AMELITA.xlsx
+++ b/REGULAR/1-RETIRED/FERMA, AMELITA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\1-RETIRED\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8673FDD-AFD3-48C7-8EBA-97E9CD3213A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B3CBB0-E243-440C-A0DC-004C775B66AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="134">
   <si>
     <t>PERIOD</t>
   </si>
@@ -195,12 +195,6 @@
     <t xml:space="preserve"> *********************NOTHING FOLLOWS***********************</t>
   </si>
   <si>
-    <t xml:space="preserve">TOTAL VL = </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TOTAL SL = </t>
-  </si>
-  <si>
     <t>2015</t>
   </si>
   <si>
@@ -349,6 +343,108 @@
   </si>
   <si>
     <t>DOMESTIC 6/7/2016</t>
+  </si>
+  <si>
+    <t>UT(0-3-11)</t>
+  </si>
+  <si>
+    <t>UT(1-4-10)</t>
+  </si>
+  <si>
+    <t>UT(1-3-47)</t>
+  </si>
+  <si>
+    <t>UT(0-2-12)</t>
+  </si>
+  <si>
+    <t>UT(0-6-01)</t>
+  </si>
+  <si>
+    <t>VL(2-0-0)</t>
+  </si>
+  <si>
+    <t>12/15,20/2016</t>
+  </si>
+  <si>
+    <t>SP(2-0-0)</t>
+  </si>
+  <si>
+    <t>PARENTAL 12/27,28</t>
+  </si>
+  <si>
+    <t>VL(5-0-0)</t>
+  </si>
+  <si>
+    <t>12/15,19,22,28,29</t>
+  </si>
+  <si>
+    <t>UT(0-6-31)</t>
+  </si>
+  <si>
+    <t>UT(1-0-43)</t>
+  </si>
+  <si>
+    <t>UT(1-2-14)</t>
+  </si>
+  <si>
+    <t>UT(0-0-2)</t>
+  </si>
+  <si>
+    <t>UT(1-0-7)</t>
+  </si>
+  <si>
+    <t>UT(0-0-19)</t>
+  </si>
+  <si>
+    <t>DOMESTIC 9/28 10/24</t>
+  </si>
+  <si>
+    <t>FL(5-0-0)</t>
+  </si>
+  <si>
+    <t>2/27,28, 3/1</t>
+  </si>
+  <si>
+    <t>DOMESTIC 5/4</t>
+  </si>
+  <si>
+    <t>DOMESTIC 6/19,20</t>
+  </si>
+  <si>
+    <t>VL(1-0-0)</t>
+  </si>
+  <si>
+    <t>DOMESTIC 2/18</t>
+  </si>
+  <si>
+    <t>5/2,3/2019</t>
+  </si>
+  <si>
+    <t>DOMESTIC 6/3, 4</t>
+  </si>
+  <si>
+    <t>9/4,6/2019</t>
+  </si>
+  <si>
+    <t>CL(5-0-0)</t>
+  </si>
+  <si>
+    <t>CALAMANITY 2/6-7,10-11,13</t>
+  </si>
+  <si>
+    <t>7/19-21/2019</t>
+  </si>
+  <si>
+    <t>SP(3-0-0)</t>
+  </si>
+  <si>
+    <t>7/26,27,28</t>
+  </si>
+  <si>
+    <t>TOTAL VL = 187.548</t>
+  </si>
+  <si>
+    <t>TOTAL SL = 265.750</t>
   </si>
 </sst>
 </file>
@@ -593,7 +689,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -732,6 +828,42 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -767,39 +899,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2788,7 +2887,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K148" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K171" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="19"/>
@@ -3166,12 +3265,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:N148"/>
+  <dimension ref="A2:N171"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A37" activePane="bottomLeft"/>
-      <selection activeCell="M9" sqref="M9:N9"/>
-      <selection pane="bottomLeft" activeCell="B53" sqref="B53"/>
+      <pane ySplit="3576" topLeftCell="A142" activePane="bottomLeft"/>
+      <selection activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="I152" sqref="I152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3193,68 +3292,68 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="61"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="56" t="s">
+      <c r="F2" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="56"/>
+      <c r="G2" s="68"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="63"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="49"/>
+      <c r="C3" s="61"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57">
+      <c r="F3" s="69">
         <v>30684</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="66"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="65"/>
     </row>
     <row r="4" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="49"/>
+      <c r="C4" s="61"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54" t="s">
+      <c r="F4" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="66"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="67"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -3280,18 +3379,18 @@
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48" t="s">
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
@@ -3338,7 +3437,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>233.95399999999998</v>
+        <v>187.548</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3348,7 +3447,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>268.75</v>
+        <v>265.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3356,7 +3455,7 @@
       <c r="N9" s="44"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="48" t="s">
         <v>47</v>
       </c>
       <c r="B10" s="20"/>
@@ -3382,7 +3481,7 @@
         <v>41670</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C11" s="13">
         <v>1.25</v>
@@ -3406,7 +3505,7 @@
         <v>41698</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C12" s="13">
         <v>1.25</v>
@@ -3430,7 +3529,7 @@
         <v>41729</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C13" s="13">
         <v>1.25</v>
@@ -3454,7 +3553,7 @@
         <v>41759</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C14" s="13">
         <v>1.25</v>
@@ -3478,7 +3577,7 @@
         <v>41790</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C15" s="13">
         <v>1.25</v>
@@ -3502,7 +3601,7 @@
         <v>41820</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C16" s="13">
         <v>1.25</v>
@@ -3526,7 +3625,7 @@
         <v>41851</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C17" s="13">
         <v>1.25</v>
@@ -3550,7 +3649,7 @@
         <v>41882</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C18" s="13">
         <v>1.25</v>
@@ -3574,7 +3673,7 @@
         <v>41912</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C19" s="13">
         <v>1.25</v>
@@ -3598,7 +3697,7 @@
         <v>41943</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C20" s="13">
         <v>1.25</v>
@@ -3622,7 +3721,7 @@
         <v>41973</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C21" s="13">
         <v>1.25</v>
@@ -3640,13 +3739,13 @@
       <c r="I21" s="9"/>
       <c r="J21" s="11"/>
       <c r="K21" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="39">
@@ -3662,13 +3761,13 @@
       <c r="I22" s="9"/>
       <c r="J22" s="11"/>
       <c r="K22" s="20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="39">
@@ -3690,7 +3789,7 @@
         <v>42004</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C24" s="13">
         <v>1.25</v>
@@ -3710,8 +3809,8 @@
       <c r="K24" s="20"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="60" t="s">
-        <v>52</v>
+      <c r="A25" s="48" t="s">
+        <v>50</v>
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="13"/>
@@ -3732,7 +3831,7 @@
         <v>42035</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C26" s="13">
         <v>1.25</v>
@@ -3749,14 +3848,14 @@
       <c r="H26" s="39"/>
       <c r="I26" s="9"/>
       <c r="J26" s="11"/>
-      <c r="K26" s="70">
+      <c r="K26" s="58">
         <v>42007</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="39">
@@ -3771,14 +3870,14 @@
       <c r="H27" s="39"/>
       <c r="I27" s="9"/>
       <c r="J27" s="11"/>
-      <c r="K27" s="70"/>
+      <c r="K27" s="58"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>42063</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C28" s="13">
         <v>1.25</v>
@@ -3822,7 +3921,7 @@
         <v>42124</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C30" s="13">
         <v>1.25</v>
@@ -3846,7 +3945,7 @@
         <v>42155</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C31" s="13">
         <v>1.25</v>
@@ -3870,7 +3969,7 @@
         <v>42185</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C32" s="13">
         <v>1.25</v>
@@ -3894,7 +3993,7 @@
         <v>42216</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C33" s="13">
         <v>1.25</v>
@@ -3912,13 +4011,13 @@
       <c r="I33" s="9"/>
       <c r="J33" s="11"/>
       <c r="K33" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="39">
@@ -3940,7 +4039,7 @@
         <v>42247</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C35" s="13">
         <v>1.25</v>
@@ -3958,13 +4057,13 @@
       <c r="I35" s="9"/>
       <c r="J35" s="11"/>
       <c r="K35" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="39">
@@ -3986,7 +4085,7 @@
         <v>42277</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C37" s="13">
         <v>1.25</v>
@@ -4002,13 +4101,13 @@
       <c r="I37" s="9"/>
       <c r="J37" s="11"/>
       <c r="K37" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="39">
@@ -4023,14 +4122,14 @@
       <c r="H38" s="39"/>
       <c r="I38" s="9"/>
       <c r="J38" s="11"/>
-      <c r="K38" s="70" t="s">
-        <v>89</v>
+      <c r="K38" s="58" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="39">
@@ -4045,14 +4144,14 @@
       <c r="H39" s="39"/>
       <c r="I39" s="9"/>
       <c r="J39" s="11"/>
-      <c r="K39" s="70"/>
+      <c r="K39" s="58"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>42308</v>
       </c>
       <c r="B40" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C40" s="13">
         <v>1.25</v>
@@ -4068,13 +4167,13 @@
       <c r="I40" s="9"/>
       <c r="J40" s="11"/>
       <c r="K40" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="39"/>
@@ -4090,13 +4189,13 @@
       <c r="I41" s="9"/>
       <c r="J41" s="11"/>
       <c r="K41" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C42" s="13"/>
       <c r="D42" s="39">
@@ -4118,7 +4217,7 @@
         <v>42338</v>
       </c>
       <c r="B43" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C43" s="13">
         <v>1.25</v>
@@ -4142,7 +4241,7 @@
         <v>42369</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C44" s="13">
         <v>1.25</v>
@@ -4162,8 +4261,8 @@
       <c r="K44" s="20"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="60" t="s">
-        <v>53</v>
+      <c r="A45" s="48" t="s">
+        <v>51</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -4184,7 +4283,7 @@
         <v>42400</v>
       </c>
       <c r="B46" s="20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C46" s="13">
         <v>1.25</v>
@@ -4248,7 +4347,7 @@
         <v>42490</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C49" s="13">
         <v>1.25</v>
@@ -4272,7 +4371,7 @@
         <v>42521</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C50" s="13">
         <v>1.25</v>
@@ -4290,13 +4389,13 @@
       <c r="I50" s="9"/>
       <c r="J50" s="11"/>
       <c r="K50" s="20" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="39">
@@ -4318,7 +4417,7 @@
         <v>42551</v>
       </c>
       <c r="B52" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C52" s="13">
         <v>1.25</v>
@@ -4334,23 +4433,23 @@
       <c r="I52" s="9"/>
       <c r="J52" s="11"/>
       <c r="K52" s="20" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="40">
-        <v>42582</v>
-      </c>
-      <c r="B53" s="20"/>
-      <c r="C53" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D53" s="39"/>
+      <c r="A53" s="40"/>
+      <c r="B53" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="C53" s="13"/>
+      <c r="D53" s="39">
+        <v>0.39800000000000002</v>
+      </c>
       <c r="E53" s="9"/>
       <c r="F53" s="20"/>
-      <c r="G53" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G53" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H53" s="39"/>
       <c r="I53" s="9"/>
@@ -4359,13 +4458,17 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
-        <v>42613</v>
-      </c>
-      <c r="B54" s="20"/>
+        <v>42582</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>101</v>
+      </c>
       <c r="C54" s="13">
         <v>1.25</v>
       </c>
-      <c r="D54" s="39"/>
+      <c r="D54" s="39">
+        <v>1.5209999999999999</v>
+      </c>
       <c r="E54" s="9"/>
       <c r="F54" s="20"/>
       <c r="G54" s="13">
@@ -4379,13 +4482,17 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
-        <v>42643</v>
-      </c>
-      <c r="B55" s="20"/>
+        <v>42613</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>102</v>
+      </c>
       <c r="C55" s="13">
         <v>1.25</v>
       </c>
-      <c r="D55" s="39"/>
+      <c r="D55" s="39">
+        <v>1.4729999999999999</v>
+      </c>
       <c r="E55" s="9"/>
       <c r="F55" s="20"/>
       <c r="G55" s="13">
@@ -4399,13 +4506,17 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
-        <v>42674</v>
-      </c>
-      <c r="B56" s="20"/>
+        <v>42643</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>103</v>
+      </c>
       <c r="C56" s="13">
         <v>1.25</v>
       </c>
-      <c r="D56" s="39"/>
+      <c r="D56" s="39">
+        <v>0.27500000000000002</v>
+      </c>
       <c r="E56" s="9"/>
       <c r="F56" s="20"/>
       <c r="G56" s="13">
@@ -4419,13 +4530,17 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
-        <v>42704</v>
-      </c>
-      <c r="B57" s="20"/>
+        <v>42674</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>100</v>
+      </c>
       <c r="C57" s="13">
         <v>1.25</v>
       </c>
-      <c r="D57" s="39"/>
+      <c r="D57" s="39">
+        <v>0.39800000000000002</v>
+      </c>
       <c r="E57" s="9"/>
       <c r="F57" s="20"/>
       <c r="G57" s="13">
@@ -4439,13 +4554,17 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
-        <v>42735</v>
-      </c>
-      <c r="B58" s="20"/>
+        <v>42704</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>104</v>
+      </c>
       <c r="C58" s="13">
         <v>1.25</v>
       </c>
-      <c r="D58" s="39"/>
+      <c r="D58" s="39">
+        <v>0.752</v>
+      </c>
       <c r="E58" s="9"/>
       <c r="F58" s="20"/>
       <c r="G58" s="13">
@@ -4458,77 +4577,87 @@
       <c r="K58" s="20"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="B59" s="20"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="39"/>
+      <c r="A59" s="40">
+        <v>42735</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C59" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D59" s="39">
+        <v>2</v>
+      </c>
       <c r="E59" s="9"/>
       <c r="F59" s="20"/>
-      <c r="G59" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G59" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H59" s="39"/>
       <c r="I59" s="9"/>
       <c r="J59" s="11"/>
-      <c r="K59" s="20"/>
+      <c r="K59" s="20" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="40">
-        <v>42766</v>
-      </c>
-      <c r="B60" s="20"/>
-      <c r="C60" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A60" s="40"/>
+      <c r="B60" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C60" s="13"/>
       <c r="D60" s="39"/>
       <c r="E60" s="9"/>
       <c r="F60" s="20"/>
-      <c r="G60" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G60" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H60" s="39"/>
       <c r="I60" s="9"/>
       <c r="J60" s="11"/>
-      <c r="K60" s="20"/>
+      <c r="K60" s="20" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="40">
-        <v>42794</v>
-      </c>
-      <c r="B61" s="20"/>
-      <c r="C61" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D61" s="39"/>
+      <c r="A61" s="40"/>
+      <c r="B61" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C61" s="13"/>
+      <c r="D61" s="39">
+        <v>5</v>
+      </c>
       <c r="E61" s="9"/>
       <c r="F61" s="20"/>
-      <c r="G61" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G61" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H61" s="39"/>
       <c r="I61" s="9"/>
       <c r="J61" s="11"/>
-      <c r="K61" s="20"/>
+      <c r="K61" s="20" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="40">
-        <v>42825</v>
-      </c>
-      <c r="B62" s="20"/>
-      <c r="C62" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D62" s="39"/>
+      <c r="A62" s="40"/>
+      <c r="B62" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C62" s="13"/>
+      <c r="D62" s="39">
+        <v>0.81499999999999995</v>
+      </c>
       <c r="E62" s="9"/>
       <c r="F62" s="20"/>
-      <c r="G62" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G62" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H62" s="39"/>
       <c r="I62" s="9"/>
@@ -4536,19 +4665,17 @@
       <c r="K62" s="20"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="40">
-        <v>42855</v>
+      <c r="A63" s="48" t="s">
+        <v>52</v>
       </c>
       <c r="B63" s="20"/>
-      <c r="C63" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C63" s="13"/>
       <c r="D63" s="39"/>
       <c r="E63" s="9"/>
       <c r="F63" s="20"/>
-      <c r="G63" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G63" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H63" s="39"/>
       <c r="I63" s="9"/>
@@ -4557,13 +4684,17 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
-        <v>42886</v>
-      </c>
-      <c r="B64" s="20"/>
+        <v>42766</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>112</v>
+      </c>
       <c r="C64" s="13">
         <v>1.25</v>
       </c>
-      <c r="D64" s="39"/>
+      <c r="D64" s="39">
+        <v>1.0900000000000001</v>
+      </c>
       <c r="E64" s="9"/>
       <c r="F64" s="20"/>
       <c r="G64" s="13">
@@ -4577,13 +4708,17 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
-        <v>42916</v>
-      </c>
-      <c r="B65" s="20"/>
+        <v>42794</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>81</v>
+      </c>
       <c r="C65" s="13">
         <v>1.25</v>
       </c>
-      <c r="D65" s="39"/>
+      <c r="D65" s="39">
+        <v>0.34599999999999997</v>
+      </c>
       <c r="E65" s="9"/>
       <c r="F65" s="20"/>
       <c r="G65" s="13">
@@ -4597,13 +4732,17 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
-        <v>42947</v>
-      </c>
-      <c r="B66" s="20"/>
+        <v>42825</v>
+      </c>
+      <c r="B66" s="20" t="s">
+        <v>113</v>
+      </c>
       <c r="C66" s="13">
         <v>1.25</v>
       </c>
-      <c r="D66" s="39"/>
+      <c r="D66" s="39">
+        <v>1.2789999999999999</v>
+      </c>
       <c r="E66" s="9"/>
       <c r="F66" s="20"/>
       <c r="G66" s="13">
@@ -4617,7 +4756,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
-        <v>42978</v>
+        <v>42855</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13">
@@ -4637,7 +4776,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
-        <v>43008</v>
+        <v>42886</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13">
@@ -4657,7 +4796,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
-        <v>43039</v>
+        <v>42916</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13">
@@ -4677,13 +4816,17 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
-        <v>43069</v>
-      </c>
-      <c r="B70" s="20"/>
+        <v>42947</v>
+      </c>
+      <c r="B70" s="20" t="s">
+        <v>114</v>
+      </c>
       <c r="C70" s="13">
         <v>1.25</v>
       </c>
-      <c r="D70" s="39"/>
+      <c r="D70" s="39">
+        <v>4.0000000000000001E-3</v>
+      </c>
       <c r="E70" s="9"/>
       <c r="F70" s="20"/>
       <c r="G70" s="13">
@@ -4697,13 +4840,17 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
-        <v>43100</v>
-      </c>
-      <c r="B71" s="20"/>
+        <v>42978</v>
+      </c>
+      <c r="B71" s="20" t="s">
+        <v>115</v>
+      </c>
       <c r="C71" s="13">
         <v>1.25</v>
       </c>
-      <c r="D71" s="39"/>
+      <c r="D71" s="39">
+        <v>1.0149999999999999</v>
+      </c>
       <c r="E71" s="9"/>
       <c r="F71" s="20"/>
       <c r="G71" s="13">
@@ -4716,17 +4863,23 @@
       <c r="K71" s="20"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="B72" s="20"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="39"/>
+      <c r="A72" s="40">
+        <v>43008</v>
+      </c>
+      <c r="B72" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C72" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D72" s="39">
+        <v>0.04</v>
+      </c>
       <c r="E72" s="9"/>
       <c r="F72" s="20"/>
-      <c r="G72" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G72" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H72" s="39"/>
       <c r="I72" s="9"/>
@@ -4735,9 +4888,11 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
-        <v>43131</v>
-      </c>
-      <c r="B73" s="20"/>
+        <v>43039</v>
+      </c>
+      <c r="B73" s="20" t="s">
+        <v>107</v>
+      </c>
       <c r="C73" s="13">
         <v>1.25</v>
       </c>
@@ -4751,11 +4906,13 @@
       <c r="H73" s="39"/>
       <c r="I73" s="9"/>
       <c r="J73" s="11"/>
-      <c r="K73" s="20"/>
+      <c r="K73" s="20" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
-        <v>43159</v>
+        <v>43069</v>
       </c>
       <c r="B74" s="20"/>
       <c r="C74" s="13">
@@ -4775,13 +4932,17 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
-        <v>43190</v>
-      </c>
-      <c r="B75" s="20"/>
+        <v>43100</v>
+      </c>
+      <c r="B75" s="20" t="s">
+        <v>118</v>
+      </c>
       <c r="C75" s="13">
         <v>1.25</v>
       </c>
-      <c r="D75" s="39"/>
+      <c r="D75" s="39">
+        <v>5</v>
+      </c>
       <c r="E75" s="9"/>
       <c r="F75" s="20"/>
       <c r="G75" s="13">
@@ -4794,19 +4955,17 @@
       <c r="K75" s="20"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="40">
-        <v>43220</v>
+      <c r="A76" s="48" t="s">
+        <v>53</v>
       </c>
       <c r="B76" s="20"/>
-      <c r="C76" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C76" s="13"/>
       <c r="D76" s="39"/>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
-      <c r="G76" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G76" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H76" s="39"/>
       <c r="I76" s="9"/>
@@ -4815,7 +4974,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
-        <v>43251</v>
+        <v>43131</v>
       </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13">
@@ -4835,13 +4994,17 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
-        <v>43281</v>
-      </c>
-      <c r="B78" s="20"/>
+        <v>43159</v>
+      </c>
+      <c r="B78" s="20" t="s">
+        <v>88</v>
+      </c>
       <c r="C78" s="13">
         <v>1.25</v>
       </c>
-      <c r="D78" s="39"/>
+      <c r="D78" s="39">
+        <v>3</v>
+      </c>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
       <c r="G78" s="13">
@@ -4851,11 +5014,13 @@
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
-      <c r="K78" s="20"/>
+      <c r="K78" s="20" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
-        <v>43312</v>
+        <v>43190</v>
       </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13">
@@ -4875,7 +5040,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
-        <v>43343</v>
+        <v>43220</v>
       </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13">
@@ -4895,9 +5060,11 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
-        <v>43373</v>
-      </c>
-      <c r="B81" s="20"/>
+        <v>43251</v>
+      </c>
+      <c r="B81" s="20" t="s">
+        <v>85</v>
+      </c>
       <c r="C81" s="13">
         <v>1.25</v>
       </c>
@@ -4911,13 +5078,17 @@
       <c r="H81" s="39"/>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
-      <c r="K81" s="20"/>
+      <c r="K81" s="20" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
-        <v>43404</v>
-      </c>
-      <c r="B82" s="20"/>
+        <v>43281</v>
+      </c>
+      <c r="B82" s="20" t="s">
+        <v>107</v>
+      </c>
       <c r="C82" s="13">
         <v>1.25</v>
       </c>
@@ -4931,31 +5102,35 @@
       <c r="H82" s="39"/>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
-      <c r="K82" s="20"/>
+      <c r="K82" s="20" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="40">
-        <v>43434</v>
-      </c>
-      <c r="B83" s="20"/>
-      <c r="C83" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D83" s="39"/>
+      <c r="A83" s="40"/>
+      <c r="B83" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C83" s="13"/>
+      <c r="D83" s="39">
+        <v>1</v>
+      </c>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G83" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H83" s="39"/>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
-      <c r="K83" s="20"/>
+      <c r="K83" s="58">
+        <v>43279</v>
+      </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
-        <v>43465</v>
+        <v>43312</v>
       </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13">
@@ -4974,26 +5149,34 @@
       <c r="K84" s="20"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="60" t="s">
-        <v>56</v>
-      </c>
-      <c r="B85" s="20"/>
-      <c r="C85" s="13"/>
+      <c r="A85" s="40">
+        <v>43343</v>
+      </c>
+      <c r="B85" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D85" s="39"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H85" s="39"/>
+      <c r="G85" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H85" s="39">
+        <v>1</v>
+      </c>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
-      <c r="K85" s="20"/>
+      <c r="K85" s="58">
+        <v>43335</v>
+      </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
-        <v>43496</v>
+        <v>43373</v>
       </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13">
@@ -5013,7 +5196,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
-        <v>43524</v>
+        <v>43404</v>
       </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13">
@@ -5033,7 +5216,7 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
-        <v>43555</v>
+        <v>43434</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13">
@@ -5053,13 +5236,17 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
-        <v>43585</v>
-      </c>
-      <c r="B89" s="20"/>
+        <v>43465</v>
+      </c>
+      <c r="B89" s="20" t="s">
+        <v>122</v>
+      </c>
       <c r="C89" s="13">
         <v>1.25</v>
       </c>
-      <c r="D89" s="39"/>
+      <c r="D89" s="39">
+        <v>1</v>
+      </c>
       <c r="E89" s="9"/>
       <c r="F89" s="20"/>
       <c r="G89" s="13">
@@ -5069,22 +5256,22 @@
       <c r="H89" s="39"/>
       <c r="I89" s="9"/>
       <c r="J89" s="11"/>
-      <c r="K89" s="20"/>
+      <c r="K89" s="58">
+        <v>43454</v>
+      </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="40">
-        <v>43616</v>
+      <c r="A90" s="48" t="s">
+        <v>54</v>
       </c>
       <c r="B90" s="20"/>
-      <c r="C90" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C90" s="13"/>
       <c r="D90" s="39"/>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
-      <c r="G90" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G90" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H90" s="39"/>
       <c r="I90" s="9"/>
@@ -5093,7 +5280,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
-        <v>43646</v>
+        <v>43496</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13">
@@ -5113,9 +5300,11 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
-        <v>43677</v>
-      </c>
-      <c r="B92" s="20"/>
+        <v>43524</v>
+      </c>
+      <c r="B92" s="20" t="s">
+        <v>85</v>
+      </c>
       <c r="C92" s="13">
         <v>1.25</v>
       </c>
@@ -5129,11 +5318,13 @@
       <c r="H92" s="39"/>
       <c r="I92" s="9"/>
       <c r="J92" s="11"/>
-      <c r="K92" s="20"/>
+      <c r="K92" s="20" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
-        <v>43708</v>
+        <v>43555</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13">
@@ -5153,7 +5344,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
-        <v>43738</v>
+        <v>43585</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13">
@@ -5173,13 +5364,17 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
-        <v>43769</v>
-      </c>
-      <c r="B95" s="20"/>
+        <v>43616</v>
+      </c>
+      <c r="B95" s="20" t="s">
+        <v>105</v>
+      </c>
       <c r="C95" s="13">
         <v>1.25</v>
       </c>
-      <c r="D95" s="39"/>
+      <c r="D95" s="39">
+        <v>2</v>
+      </c>
       <c r="E95" s="9"/>
       <c r="F95" s="20"/>
       <c r="G95" s="13">
@@ -5189,13 +5384,17 @@
       <c r="H95" s="39"/>
       <c r="I95" s="9"/>
       <c r="J95" s="11"/>
-      <c r="K95" s="20"/>
+      <c r="K95" s="20" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
-        <v>43799</v>
-      </c>
-      <c r="B96" s="20"/>
+        <v>43646</v>
+      </c>
+      <c r="B96" s="20" t="s">
+        <v>107</v>
+      </c>
       <c r="C96" s="13">
         <v>1.25</v>
       </c>
@@ -5209,11 +5408,13 @@
       <c r="H96" s="39"/>
       <c r="I96" s="9"/>
       <c r="J96" s="11"/>
-      <c r="K96" s="20"/>
+      <c r="K96" s="20" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
-        <v>43830</v>
+        <v>43677</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13">
@@ -5232,17 +5433,19 @@
       <c r="K97" s="20"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98" s="60" t="s">
-        <v>57</v>
+      <c r="A98" s="40">
+        <v>43708</v>
       </c>
       <c r="B98" s="20"/>
-      <c r="C98" s="13"/>
+      <c r="C98" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D98" s="39"/>
       <c r="E98" s="9"/>
       <c r="F98" s="20"/>
-      <c r="G98" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G98" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H98" s="39"/>
       <c r="I98" s="9"/>
@@ -5251,9 +5454,11 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
-        <v>43861</v>
-      </c>
-      <c r="B99" s="20"/>
+        <v>43738</v>
+      </c>
+      <c r="B99" s="20" t="s">
+        <v>91</v>
+      </c>
       <c r="C99" s="13">
         <v>1.25</v>
       </c>
@@ -5264,14 +5469,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H99" s="39"/>
+      <c r="H99" s="39">
+        <v>2</v>
+      </c>
       <c r="I99" s="9"/>
       <c r="J99" s="11"/>
-      <c r="K99" s="20"/>
+      <c r="K99" s="20" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
-        <v>43890</v>
+        <v>43769</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13">
@@ -5291,7 +5500,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
-        <v>43921</v>
+        <v>43799</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13">
@@ -5311,13 +5520,17 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
-        <v>43951</v>
-      </c>
-      <c r="B102" s="20"/>
+        <v>43830</v>
+      </c>
+      <c r="B102" s="20" t="s">
+        <v>122</v>
+      </c>
       <c r="C102" s="13">
         <v>1.25</v>
       </c>
-      <c r="D102" s="39"/>
+      <c r="D102" s="39">
+        <v>1</v>
+      </c>
       <c r="E102" s="9"/>
       <c r="F102" s="20"/>
       <c r="G102" s="13">
@@ -5327,42 +5540,42 @@
       <c r="H102" s="39"/>
       <c r="I102" s="9"/>
       <c r="J102" s="11"/>
-      <c r="K102" s="20"/>
+      <c r="K102" s="58">
+        <v>43826</v>
+      </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" s="40">
-        <v>43982</v>
-      </c>
-      <c r="B103" s="20"/>
-      <c r="C103" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D103" s="39"/>
+      <c r="A103" s="40"/>
+      <c r="B103" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C103" s="13"/>
+      <c r="D103" s="39">
+        <v>2</v>
+      </c>
       <c r="E103" s="9"/>
       <c r="F103" s="20"/>
-      <c r="G103" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G103" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H103" s="39"/>
       <c r="I103" s="9"/>
       <c r="J103" s="11"/>
-      <c r="K103" s="20"/>
+      <c r="K103" s="58"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A104" s="40">
-        <v>44012</v>
+      <c r="A104" s="48" t="s">
+        <v>55</v>
       </c>
       <c r="B104" s="20"/>
-      <c r="C104" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C104" s="13"/>
       <c r="D104" s="39"/>
       <c r="E104" s="9"/>
       <c r="F104" s="20"/>
-      <c r="G104" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G104" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H104" s="39"/>
       <c r="I104" s="9"/>
@@ -5371,9 +5584,11 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
-        <v>44043</v>
-      </c>
-      <c r="B105" s="20"/>
+        <v>43861</v>
+      </c>
+      <c r="B105" s="20" t="s">
+        <v>127</v>
+      </c>
       <c r="C105" s="13">
         <v>1.25</v>
       </c>
@@ -5387,11 +5602,13 @@
       <c r="H105" s="39"/>
       <c r="I105" s="9"/>
       <c r="J105" s="11"/>
-      <c r="K105" s="20"/>
+      <c r="K105" s="20" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
-        <v>44074</v>
+        <v>43890</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13">
@@ -5411,7 +5628,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
-        <v>44104</v>
+        <v>43921</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13">
@@ -5431,7 +5648,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
-        <v>44135</v>
+        <v>43951</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13">
@@ -5451,7 +5668,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
-        <v>44165</v>
+        <v>43982</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13">
@@ -5471,7 +5688,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
-        <v>44196</v>
+        <v>44012</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13">
@@ -5490,17 +5707,19 @@
       <c r="K110" s="20"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A111" s="60" t="s">
-        <v>58</v>
+      <c r="A111" s="40">
+        <v>44043</v>
       </c>
       <c r="B111" s="20"/>
-      <c r="C111" s="13"/>
+      <c r="C111" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D111" s="39"/>
       <c r="E111" s="9"/>
       <c r="F111" s="20"/>
-      <c r="G111" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G111" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H111" s="39"/>
       <c r="I111" s="9"/>
@@ -5509,7 +5728,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
-        <v>44227</v>
+        <v>44074</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13">
@@ -5529,7 +5748,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
-        <v>44255</v>
+        <v>44104</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13">
@@ -5549,7 +5768,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
-        <v>44286</v>
+        <v>44135</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13">
@@ -5569,7 +5788,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
-        <v>44316</v>
+        <v>44165</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13">
@@ -5589,13 +5808,17 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
-        <v>44347</v>
-      </c>
-      <c r="B116" s="20"/>
+        <v>44196</v>
+      </c>
+      <c r="B116" s="20" t="s">
+        <v>118</v>
+      </c>
       <c r="C116" s="13">
         <v>1.25</v>
       </c>
-      <c r="D116" s="39"/>
+      <c r="D116" s="39">
+        <v>5</v>
+      </c>
       <c r="E116" s="9"/>
       <c r="F116" s="20"/>
       <c r="G116" s="13">
@@ -5608,19 +5831,17 @@
       <c r="K116" s="20"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A117" s="40">
-        <v>44377</v>
+      <c r="A117" s="48" t="s">
+        <v>56</v>
       </c>
       <c r="B117" s="20"/>
-      <c r="C117" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C117" s="13"/>
       <c r="D117" s="39"/>
       <c r="E117" s="9"/>
       <c r="F117" s="20"/>
-      <c r="G117" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G117" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H117" s="39"/>
       <c r="I117" s="9"/>
@@ -5629,7 +5850,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
-        <v>44408</v>
+        <v>44227</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13">
@@ -5649,7 +5870,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
-        <v>44439</v>
+        <v>44255</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13">
@@ -5669,7 +5890,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
-        <v>44469</v>
+        <v>44286</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13">
@@ -5689,7 +5910,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
-        <v>44500</v>
+        <v>44316</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13">
@@ -5709,7 +5930,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
-        <v>44530</v>
+        <v>44347</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13">
@@ -5729,7 +5950,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
-        <v>44561</v>
+        <v>44377</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13">
@@ -5748,46 +5969,54 @@
       <c r="K123" s="20"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A124" s="60" t="s">
-        <v>59</v>
-      </c>
-      <c r="B124" s="20"/>
-      <c r="C124" s="13"/>
-      <c r="D124" s="39"/>
+      <c r="A124" s="40">
+        <v>44408</v>
+      </c>
+      <c r="B124" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C124" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D124" s="39">
+        <v>5</v>
+      </c>
       <c r="E124" s="9"/>
       <c r="F124" s="20"/>
-      <c r="G124" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G124" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H124" s="39"/>
       <c r="I124" s="9"/>
       <c r="J124" s="11"/>
-      <c r="K124" s="20"/>
+      <c r="K124" s="20" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A125" s="40">
-        <v>44592</v>
-      </c>
-      <c r="B125" s="20"/>
-      <c r="C125" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A125" s="40"/>
+      <c r="B125" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C125" s="13"/>
       <c r="D125" s="39"/>
       <c r="E125" s="9"/>
       <c r="F125" s="20"/>
-      <c r="G125" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G125" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H125" s="39"/>
       <c r="I125" s="9"/>
       <c r="J125" s="11"/>
-      <c r="K125" s="20"/>
+      <c r="K125" s="20" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
-        <v>44620</v>
+        <v>44439</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13">
@@ -5807,7 +6036,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
-        <v>44651</v>
+        <v>44469</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13">
@@ -5827,7 +6056,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
-        <v>44681</v>
+        <v>44500</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13">
@@ -5847,7 +6076,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
-        <v>44712</v>
+        <v>44530</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13">
@@ -5867,7 +6096,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
-        <v>44742</v>
+        <v>44561</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13">
@@ -5886,19 +6115,17 @@
       <c r="K130" s="20"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A131" s="40">
-        <v>44773</v>
+      <c r="A131" s="48" t="s">
+        <v>57</v>
       </c>
       <c r="B131" s="20"/>
-      <c r="C131" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C131" s="13"/>
       <c r="D131" s="39"/>
       <c r="E131" s="9"/>
       <c r="F131" s="20"/>
-      <c r="G131" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G131" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H131" s="39"/>
       <c r="I131" s="9"/>
@@ -5907,7 +6134,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
-        <v>44804</v>
+        <v>44592</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13">
@@ -5927,7 +6154,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
-        <v>44834</v>
+        <v>44620</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13">
@@ -5947,7 +6174,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
-        <v>44865</v>
+        <v>44651</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13">
@@ -5967,7 +6194,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
-        <v>44895</v>
+        <v>44681</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13">
@@ -5987,7 +6214,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
-        <v>44926</v>
+        <v>44712</v>
       </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13">
@@ -6006,64 +6233,79 @@
       <c r="K136" s="20"/>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A137" s="61"/>
-      <c r="B137" s="62" t="s">
-        <v>48</v>
-      </c>
-      <c r="C137" s="63"/>
-      <c r="D137" s="64"/>
-      <c r="E137" s="65"/>
+      <c r="A137" s="40">
+        <v>44742</v>
+      </c>
+      <c r="B137" s="20"/>
+      <c r="C137" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D137" s="39"/>
+      <c r="E137" s="9"/>
       <c r="F137" s="20"/>
-      <c r="G137" s="13"/>
+      <c r="G137" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H137" s="39"/>
       <c r="I137" s="9"/>
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A138" s="40"/>
+      <c r="A138" s="40">
+        <v>44773</v>
+      </c>
       <c r="B138" s="20"/>
-      <c r="C138" s="13"/>
-      <c r="D138" s="69" t="s">
-        <v>50</v>
-      </c>
+      <c r="C138" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D138" s="39"/>
       <c r="E138" s="9"/>
       <c r="F138" s="20"/>
-      <c r="G138" s="9"/>
-      <c r="H138" s="66" t="s">
-        <v>51</v>
-      </c>
+      <c r="G138" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H138" s="39"/>
       <c r="I138" s="9"/>
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A139" s="40"/>
+      <c r="A139" s="40">
+        <v>44804</v>
+      </c>
       <c r="B139" s="20"/>
-      <c r="C139" s="13" t="s">
-        <v>49</v>
+      <c r="C139" s="13">
+        <v>1.25</v>
       </c>
       <c r="D139" s="39"/>
       <c r="E139" s="9"/>
       <c r="F139" s="20"/>
-      <c r="G139" s="63" t="s">
-        <v>49</v>
-      </c>
-      <c r="H139" s="64"/>
-      <c r="I139" s="65"/>
-      <c r="J139" s="67"/>
-      <c r="K139" s="68"/>
+      <c r="G139" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H139" s="39"/>
+      <c r="I139" s="9"/>
+      <c r="J139" s="11"/>
+      <c r="K139" s="20"/>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A140" s="40"/>
+      <c r="A140" s="40">
+        <v>44834</v>
+      </c>
       <c r="B140" s="20"/>
-      <c r="C140" s="13"/>
+      <c r="C140" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D140" s="39"/>
       <c r="E140" s="9"/>
       <c r="F140" s="20"/>
-      <c r="G140" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G140" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H140" s="39"/>
       <c r="I140" s="9"/>
@@ -6071,15 +6313,19 @@
       <c r="K140" s="20"/>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A141" s="40"/>
+      <c r="A141" s="40">
+        <v>44865</v>
+      </c>
       <c r="B141" s="20"/>
-      <c r="C141" s="13"/>
+      <c r="C141" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D141" s="39"/>
       <c r="E141" s="9"/>
       <c r="F141" s="20"/>
-      <c r="G141" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G141" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H141" s="39"/>
       <c r="I141" s="9"/>
@@ -6087,15 +6333,19 @@
       <c r="K141" s="20"/>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A142" s="40"/>
+      <c r="A142" s="40">
+        <v>44895</v>
+      </c>
       <c r="B142" s="20"/>
-      <c r="C142" s="13"/>
+      <c r="C142" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D142" s="39"/>
       <c r="E142" s="9"/>
       <c r="F142" s="20"/>
-      <c r="G142" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G142" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H142" s="39"/>
       <c r="I142" s="9"/>
@@ -6103,15 +6353,23 @@
       <c r="K142" s="20"/>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A143" s="40"/>
-      <c r="B143" s="20"/>
-      <c r="C143" s="13"/>
-      <c r="D143" s="39"/>
+      <c r="A143" s="40">
+        <v>44926</v>
+      </c>
+      <c r="B143" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C143" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D143" s="39">
+        <v>5</v>
+      </c>
       <c r="E143" s="9"/>
       <c r="F143" s="20"/>
-      <c r="G143" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G143" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H143" s="39"/>
       <c r="I143" s="9"/>
@@ -6135,16 +6393,15 @@
       <c r="K144" s="20"/>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A145" s="40"/>
-      <c r="B145" s="20"/>
-      <c r="C145" s="13"/>
-      <c r="D145" s="39"/>
-      <c r="E145" s="9"/>
+      <c r="A145" s="49"/>
+      <c r="B145" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="C145" s="51"/>
+      <c r="D145" s="52"/>
+      <c r="E145" s="53"/>
       <c r="F145" s="20"/>
-      <c r="G145" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
+      <c r="G145" s="13"/>
       <c r="H145" s="39"/>
       <c r="I145" s="9"/>
       <c r="J145" s="11"/>
@@ -6154,14 +6411,15 @@
       <c r="A146" s="40"/>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
-      <c r="D146" s="39"/>
+      <c r="D146" s="57" t="s">
+        <v>132</v>
+      </c>
       <c r="E146" s="9"/>
       <c r="F146" s="20"/>
-      <c r="G146" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H146" s="39"/>
+      <c r="G146" s="9"/>
+      <c r="H146" s="54" t="s">
+        <v>133</v>
+      </c>
       <c r="I146" s="9"/>
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
@@ -6169,34 +6427,403 @@
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40"/>
       <c r="B147" s="20"/>
-      <c r="C147" s="13"/>
+      <c r="C147" s="13" t="s">
+        <v>49</v>
+      </c>
       <c r="D147" s="39"/>
       <c r="E147" s="9"/>
       <c r="F147" s="20"/>
-      <c r="G147" s="13" t="str">
+      <c r="G147" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="H147" s="52"/>
+      <c r="I147" s="53"/>
+      <c r="J147" s="55"/>
+      <c r="K147" s="56"/>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A148" s="40"/>
+      <c r="B148" s="20"/>
+      <c r="C148" s="13"/>
+      <c r="D148" s="39"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="20"/>
+      <c r="G148" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H147" s="39"/>
-      <c r="I147" s="9"/>
-      <c r="J147" s="11"/>
-      <c r="K147" s="20"/>
-    </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A148" s="41"/>
-      <c r="B148" s="15"/>
-      <c r="C148" s="42"/>
-      <c r="D148" s="43"/>
-      <c r="E148" s="9"/>
-      <c r="F148" s="15"/>
-      <c r="G148" s="42" t="str">
+      <c r="H148" s="39"/>
+      <c r="I148" s="9"/>
+      <c r="J148" s="11"/>
+      <c r="K148" s="20"/>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A149" s="40"/>
+      <c r="B149" s="20"/>
+      <c r="C149" s="13"/>
+      <c r="D149" s="39"/>
+      <c r="E149" s="9"/>
+      <c r="F149" s="20"/>
+      <c r="G149" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H148" s="43"/>
-      <c r="I148" s="9"/>
-      <c r="J148" s="12"/>
-      <c r="K148" s="15"/>
+      <c r="H149" s="39"/>
+      <c r="I149" s="9"/>
+      <c r="J149" s="11"/>
+      <c r="K149" s="20"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A150" s="40"/>
+      <c r="B150" s="20"/>
+      <c r="C150" s="13"/>
+      <c r="D150" s="39"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="20"/>
+      <c r="G150" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H150" s="39"/>
+      <c r="I150" s="9"/>
+      <c r="J150" s="11"/>
+      <c r="K150" s="20"/>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A151" s="40"/>
+      <c r="B151" s="20"/>
+      <c r="C151" s="13"/>
+      <c r="D151" s="39"/>
+      <c r="E151" s="9"/>
+      <c r="F151" s="20"/>
+      <c r="G151" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H151" s="39"/>
+      <c r="I151" s="9"/>
+      <c r="J151" s="11"/>
+      <c r="K151" s="20"/>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A152" s="40"/>
+      <c r="B152" s="20"/>
+      <c r="C152" s="13"/>
+      <c r="D152" s="39"/>
+      <c r="E152" s="9"/>
+      <c r="F152" s="20"/>
+      <c r="G152" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H152" s="39"/>
+      <c r="I152" s="9"/>
+      <c r="J152" s="11"/>
+      <c r="K152" s="20"/>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A153" s="40"/>
+      <c r="B153" s="20"/>
+      <c r="C153" s="13"/>
+      <c r="D153" s="39"/>
+      <c r="E153" s="9"/>
+      <c r="F153" s="20"/>
+      <c r="G153" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H153" s="39"/>
+      <c r="I153" s="9"/>
+      <c r="J153" s="11"/>
+      <c r="K153" s="20"/>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A154" s="40"/>
+      <c r="B154" s="20"/>
+      <c r="C154" s="13"/>
+      <c r="D154" s="39"/>
+      <c r="E154" s="9"/>
+      <c r="F154" s="20"/>
+      <c r="G154" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H154" s="39"/>
+      <c r="I154" s="9"/>
+      <c r="J154" s="11"/>
+      <c r="K154" s="20"/>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A155" s="40"/>
+      <c r="B155" s="20"/>
+      <c r="C155" s="13"/>
+      <c r="D155" s="39"/>
+      <c r="E155" s="9"/>
+      <c r="F155" s="20"/>
+      <c r="G155" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H155" s="39"/>
+      <c r="I155" s="9"/>
+      <c r="J155" s="11"/>
+      <c r="K155" s="20"/>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A156" s="41"/>
+      <c r="B156" s="15"/>
+      <c r="C156" s="42"/>
+      <c r="D156" s="43"/>
+      <c r="E156" s="9"/>
+      <c r="F156" s="15"/>
+      <c r="G156" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H156" s="43"/>
+      <c r="I156" s="9"/>
+      <c r="J156" s="12"/>
+      <c r="K156" s="15"/>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A157" s="40"/>
+      <c r="B157" s="20"/>
+      <c r="C157" s="13"/>
+      <c r="D157" s="39"/>
+      <c r="E157" s="9"/>
+      <c r="F157" s="20"/>
+      <c r="G157" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H157" s="39"/>
+      <c r="I157" s="9"/>
+      <c r="J157" s="11"/>
+      <c r="K157" s="20"/>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A158" s="40"/>
+      <c r="B158" s="20"/>
+      <c r="C158" s="13"/>
+      <c r="D158" s="39"/>
+      <c r="E158" s="9"/>
+      <c r="F158" s="20"/>
+      <c r="G158" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H158" s="39"/>
+      <c r="I158" s="9"/>
+      <c r="J158" s="11"/>
+      <c r="K158" s="20"/>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A159" s="40"/>
+      <c r="B159" s="20"/>
+      <c r="C159" s="13"/>
+      <c r="D159" s="39"/>
+      <c r="E159" s="9"/>
+      <c r="F159" s="20"/>
+      <c r="G159" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H159" s="39"/>
+      <c r="I159" s="9"/>
+      <c r="J159" s="11"/>
+      <c r="K159" s="20"/>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A160" s="40"/>
+      <c r="B160" s="20"/>
+      <c r="C160" s="13"/>
+      <c r="D160" s="39"/>
+      <c r="E160" s="9"/>
+      <c r="F160" s="20"/>
+      <c r="G160" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H160" s="39"/>
+      <c r="I160" s="9"/>
+      <c r="J160" s="11"/>
+      <c r="K160" s="20"/>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A161" s="40"/>
+      <c r="B161" s="20"/>
+      <c r="C161" s="13"/>
+      <c r="D161" s="39"/>
+      <c r="E161" s="9"/>
+      <c r="F161" s="20"/>
+      <c r="G161" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H161" s="39"/>
+      <c r="I161" s="9"/>
+      <c r="J161" s="11"/>
+      <c r="K161" s="20"/>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A162" s="40"/>
+      <c r="B162" s="20"/>
+      <c r="C162" s="13"/>
+      <c r="D162" s="39"/>
+      <c r="E162" s="9"/>
+      <c r="F162" s="20"/>
+      <c r="G162" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H162" s="39"/>
+      <c r="I162" s="9"/>
+      <c r="J162" s="11"/>
+      <c r="K162" s="20"/>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A163" s="40"/>
+      <c r="B163" s="20"/>
+      <c r="C163" s="13"/>
+      <c r="D163" s="39"/>
+      <c r="E163" s="9"/>
+      <c r="F163" s="20"/>
+      <c r="G163" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H163" s="39"/>
+      <c r="I163" s="9"/>
+      <c r="J163" s="11"/>
+      <c r="K163" s="20"/>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A164" s="40"/>
+      <c r="B164" s="20"/>
+      <c r="C164" s="13"/>
+      <c r="D164" s="39"/>
+      <c r="E164" s="9"/>
+      <c r="F164" s="20"/>
+      <c r="G164" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H164" s="39"/>
+      <c r="I164" s="9"/>
+      <c r="J164" s="11"/>
+      <c r="K164" s="20"/>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A165" s="40"/>
+      <c r="B165" s="20"/>
+      <c r="C165" s="13"/>
+      <c r="D165" s="39"/>
+      <c r="E165" s="9"/>
+      <c r="F165" s="20"/>
+      <c r="G165" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H165" s="39"/>
+      <c r="I165" s="9"/>
+      <c r="J165" s="11"/>
+      <c r="K165" s="20"/>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A166" s="40"/>
+      <c r="B166" s="20"/>
+      <c r="C166" s="13"/>
+      <c r="D166" s="39"/>
+      <c r="E166" s="9"/>
+      <c r="F166" s="20"/>
+      <c r="G166" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H166" s="39"/>
+      <c r="I166" s="9"/>
+      <c r="J166" s="11"/>
+      <c r="K166" s="20"/>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A167" s="40"/>
+      <c r="B167" s="20"/>
+      <c r="C167" s="13"/>
+      <c r="D167" s="39"/>
+      <c r="E167" s="9"/>
+      <c r="F167" s="20"/>
+      <c r="G167" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H167" s="39"/>
+      <c r="I167" s="9"/>
+      <c r="J167" s="11"/>
+      <c r="K167" s="20"/>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A168" s="40"/>
+      <c r="B168" s="20"/>
+      <c r="C168" s="13"/>
+      <c r="D168" s="39"/>
+      <c r="E168" s="9"/>
+      <c r="F168" s="20"/>
+      <c r="G168" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H168" s="39"/>
+      <c r="I168" s="9"/>
+      <c r="J168" s="11"/>
+      <c r="K168" s="20"/>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A169" s="40"/>
+      <c r="B169" s="20"/>
+      <c r="C169" s="13"/>
+      <c r="D169" s="39"/>
+      <c r="E169" s="9"/>
+      <c r="F169" s="20"/>
+      <c r="G169" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H169" s="39"/>
+      <c r="I169" s="9"/>
+      <c r="J169" s="11"/>
+      <c r="K169" s="20"/>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A170" s="40"/>
+      <c r="B170" s="20"/>
+      <c r="C170" s="13"/>
+      <c r="D170" s="39"/>
+      <c r="E170" s="9"/>
+      <c r="F170" s="20"/>
+      <c r="G170" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H170" s="39"/>
+      <c r="I170" s="9"/>
+      <c r="J170" s="11"/>
+      <c r="K170" s="20"/>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A171" s="41"/>
+      <c r="B171" s="15"/>
+      <c r="C171" s="42"/>
+      <c r="D171" s="43"/>
+      <c r="E171" s="59"/>
+      <c r="F171" s="15"/>
+      <c r="G171" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H171" s="43"/>
+      <c r="I171" s="59"/>
+      <c r="J171" s="12"/>
+      <c r="K171" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -6227,7 +6854,7 @@
 CITY OF TAGAYTAY
 EMPLOYEE'S LEAVE CARD</oddHeader>
     <oddFooter>&amp;L
-PREPARED BY: ___________________
+PREPARED BY: &amp;UJUEL D. COPER&amp;U
 DATE: &amp;D, &amp;T&amp;C
 CERTIFIED CORRECT BY: &amp;UALMA A. MALABANAN&amp;U
                                    HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
@@ -6262,17 +6889,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="J1" s="59" t="s">
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="J1" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
@@ -6311,15 +6938,13 @@
         <v>136.75</v>
       </c>
       <c r="D3"/>
-      <c r="E3">
-        <v>3</v>
-      </c>
+      <c r="E3"/>
       <c r="F3">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="G3" s="47">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.496</v>
+        <v>0.04</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" s="35">
@@ -6355,12 +6980,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
